--- a/North Disinfection HRT Calculator.xlsx
+++ b/North Disinfection HRT Calculator.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Personal Drives-Common\Freedman D\Disinfection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KNewhart\Documents\GitHub\MWRD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2007,8 +2007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="8">
-        <v>90</v>
+        <v>54.11</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -2081,7 +2081,7 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="9">
         <f>B3*1.547</f>
-        <v>139.22999999999999</v>
+        <v>83.708169999999996</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="B9" s="10">
         <f>(B4/B8/B7)^(2/3)</f>
-        <v>0.59543103187088697</v>
+        <v>0.42415196292237778</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -2234,7 +2234,7 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
         <f>B9*12</f>
-        <v>7.1451723824506441</v>
+        <v>5.0898235550685333</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B11" s="12">
         <f>B6+B9</f>
-        <v>5110.3954310318713</v>
+        <v>5110.2241519629224</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="B17" s="11">
         <f>B11+B13</f>
-        <v>5110.3954310318713</v>
+        <v>5110.2241519629224</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="B19" s="12">
         <f>B17-B18</f>
-        <v>13.595431031871158</v>
+        <v>13.424151962922224</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="B22" s="10">
         <f>B19*B21*7.48/10^6</f>
-        <v>2.2138745510574864</v>
+        <v>2.1859835359814697</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -2582,7 +2582,7 @@
       </c>
       <c r="B23" s="12">
         <f>B22/B3*24*60</f>
-        <v>35.421992816919776</v>
+        <v>58.174390903960756</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -2742,8 +2742,8 @@
         <v>29</v>
       </c>
       <c r="B29" s="11">
-        <f>B17+B25</f>
-        <v>5110.9954310318717</v>
+        <f>IF(B3&lt;100,B17+B25,IF(B3&lt;140,B17+B26,IF(B3&lt;190,B17+B27,B17+B28)))</f>
+        <v>5110.8241519629228</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="B33" s="12">
         <f>B29-B30</f>
-        <v>3.9954310318717035</v>
+        <v>3.8241519629227696</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B35" s="12">
         <f>B29-B34</f>
-        <v>10.995431031871703</v>
+        <v>10.82415196292277</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="B39" s="14">
         <f>B37*B33*7.48</f>
-        <v>20471.789521104234</v>
+        <v>19594.18982762369</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="B41" s="14">
         <f>B40*B35*7.48</f>
-        <v>25167.222180230507</v>
+        <v>24775.18494489467</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="B42" s="14">
         <f>B38+B39+B41</f>
-        <v>63572.311701334744</v>
+        <v>62302.674772518367</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="B43" s="16">
         <f>B42/B3*24*60/10^6</f>
-        <v>1.0171569872213559</v>
+        <v>1.6580271977901766</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B45" s="10">
         <f>(B42/10^6)+(470*B19*7.48/10^6)</f>
-        <v>0.11136840903698099</v>
+        <v>0.10949662341336774</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B46" s="12">
         <f>B45/$B$3*24*60</f>
-        <v>1.7818945445916961</v>
+        <v>2.9139740845546025</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B47" s="10">
         <f>(B42/10^6)+((470+7410)*B19*7.48/10^6)</f>
-        <v>0.86491964575429714</v>
+        <v>0.85355440943186522</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B48" s="12">
         <f>B47/$B$3*24*60</f>
-        <v>13.838714332068754</v>
+        <v>22.715179256734174</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B49" s="10">
         <f>(B42/10^6)+((470+7410+6945)*B19*7.48/10^6)</f>
-        <v>1.5711832542565594</v>
+        <v>1.550920310092927</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B50" s="12">
         <f>B49/$B$3*24*60</f>
-        <v>25.138932068104946</v>
+        <v>41.27379867924256</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="B51" s="10">
         <f>(B42/10^6)+((470+7410+6945+6945)*B19*7.48/10^6)</f>
-        <v>2.2774468627588211</v>
+        <v>2.2482862107539878</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="B52" s="12">
         <f>B51/$B$3*24*60</f>
-        <v>36.439149804141138</v>
+        <v>59.832418101750925</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B53" s="10">
         <f>(B42/10^6)+((470+1760)*B19*7.48/10^6)</f>
-        <v>0.29034953948535841</v>
+        <v>0.28622289917484622</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B54" s="12">
         <f>B53/$B$3*24*60</f>
-        <v>4.6455926317657346</v>
+        <v>7.61709434137458</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B55" s="10">
         <f>(B42/10^6)+((470+7410+(6945/2))*B19*7.48/10^6)</f>
-        <v>1.2180514500054282</v>
+        <v>1.2022373597623961</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="B56" s="12">
         <f>B55/$B$3*24*60</f>
-        <v>19.488823200086852</v>
+        <v>31.994488967988367</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>

--- a/North Disinfection HRT Calculator.xlsx
+++ b/North Disinfection HRT Calculator.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="83">
   <si>
     <t>Flow</t>
   </si>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t>HRT to 1/2-basin location</t>
+  </si>
+  <si>
+    <t>HRT 1 min</t>
+  </si>
+  <si>
+    <t>HRT 1/2 basin</t>
   </si>
 </sst>
 </file>
@@ -856,6 +862,493 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C57F-4AAD-895B-C1EE499DD8FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HRT 1 min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.18319421047515752"/>
+                  <c:y val="-9.2755526804801699E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>7.7219048872160121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1835021979289069</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9114354825318367</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1466542772850512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6358520955689295</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6476086013510338</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1544192702610241</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.90614892573386385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA3A-429B-A66B-EF6043E15789}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HRT 1/2 basin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>85.193656539402923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.096252931289087</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.02334256878175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.566575471016279</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.920721025252586</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.751848983594847</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.201793628322251</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.412608699819268</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4EB0-49C3-99DE-B30D4450E66F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1711,16 +2204,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>131668</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9203</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>546287</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>423822</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>172571</xdr:rowOff>
+      <xdr:rowOff>63713</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2005,10 +2498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,12 +2514,12 @@
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -2051,13 +2544,19 @@
       <c r="I2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8">
-        <v>54.11</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -2077,11 +2576,17 @@
         <f>(H3-G3)/G3</f>
         <v>-2.1722707599634006E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>7.7219048872160121</v>
+      </c>
+      <c r="K3">
+        <v>85.193656539402923</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="9">
         <f>B3*1.547</f>
-        <v>83.708169999999996</v>
+        <v>30.939999999999998</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -2102,7 +2607,7 @@
         <v>-1.4234842490656971E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>54</v>
       </c>
@@ -2122,8 +2627,14 @@
         <f t="shared" si="1"/>
         <v>-8.1576982809753121E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>5.1835021979289069</v>
+      </c>
+      <c r="K5">
+        <v>57.096252931289087</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2152,7 +2663,7 @@
         <v>-4.0521928647216108E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2177,8 +2688,14 @@
         <f t="shared" si="1"/>
         <v>-2.0821183766737923E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>3.9114354825318367</v>
+      </c>
+      <c r="K7">
+        <v>43.02334256878175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2201,13 +2718,13 @@
         <v>1.7160837644003774E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="10">
         <f>(B4/B8/B7)^(2/3)</f>
-        <v>0.42415196292237778</v>
+        <v>0.21845221655243632</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -2230,11 +2747,17 @@
         <f t="shared" si="1"/>
         <v>3.7264320521237645E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>3.1466542772850512</v>
+      </c>
+      <c r="K9">
+        <v>34.566575471016279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
         <f>B9*12</f>
-        <v>5.0898235550685333</v>
+        <v>2.621426598629236</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -2255,13 +2778,13 @@
         <v>6.5444067164350502E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="12">
         <f>B6+B9</f>
-        <v>5110.2241519629224</v>
+        <v>5110.0184522165528</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -2281,8 +2804,14 @@
         <f t="shared" si="1"/>
         <v>8.3820477484061948E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>2.6358520955689295</v>
+      </c>
+      <c r="K11">
+        <v>28.920721025252586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -2303,7 +2832,7 @@
         <v>1.0694244336836221E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -2329,7 +2858,7 @@
         <v>1.2437648940060327E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -2358,7 +2887,7 @@
         <v>1.3181242822643255E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -2387,7 +2916,7 @@
         <v>1.5595516942636029E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -2413,13 +2942,13 @@
         <v>1.5663261108666976E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="11">
-        <f>B11+B13</f>
-        <v>5110.2241519629224</v>
+        <f>IF(B3&lt;100,B11+B13,IF(B3&lt;140,B11+B14,IF(B3&lt;200,B11+B15,B11+B16)))</f>
+        <v>5110.0184522165528</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -2443,7 +2972,7 @@
         <v>1.6574438560130928E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -2469,13 +2998,13 @@
         <v>1.7025447113697013E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="12">
         <f>B17-B18</f>
-        <v>13.424151962922224</v>
+        <v>13.218452216552578</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -2496,8 +3025,14 @@
         <f t="shared" si="1"/>
         <v>9.8373581631785081E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>1.6476086013510338</v>
+      </c>
+      <c r="K19">
+        <v>17.751848983594847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,7 +3054,7 @@
         <v>1.0772691879495018E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2549,13 +3084,13 @@
         <v>9.6041749722702366E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="10">
         <f>B19*B21*7.48/10^6</f>
-        <v>2.1859835359814697</v>
+        <v>2.1524874715625351</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -2576,13 +3111,13 @@
         <v>1.2416924846280182E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="12">
         <f>B22/B3*24*60</f>
-        <v>58.174390903960756</v>
+        <v>154.97909795250251</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -2603,7 +3138,7 @@
         <v>1.1562913594030968E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
@@ -2624,7 +3159,7 @@
         <v>1.0277363427620211E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -2650,7 +3185,7 @@
         <v>1.2037437742344127E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2679,7 +3214,7 @@
         <v>1.2357969212192288E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2708,7 +3243,7 @@
         <v>-2.1322358599670946E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2737,13 +3272,13 @@
         <v>-1.3822219531606488E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="11">
         <f>IF(B3&lt;100,B17+B25,IF(B3&lt;140,B17+B26,IF(B3&lt;190,B17+B27,B17+B28)))</f>
-        <v>5110.8241519629228</v>
+        <v>5110.6184522165531</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
@@ -2766,8 +3301,14 @@
         <f t="shared" si="1"/>
         <v>-2.6720221508680897E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>1.1544192702610241</v>
+      </c>
+      <c r="K29">
+        <v>12.201793628322251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2793,7 +3334,7 @@
         <v>-1.9039100585509082E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2819,7 +3360,7 @@
         <v>-3.742781034113117E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2849,13 +3390,13 @@
         <v>-3.8159361753263951E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="12">
         <f>B29-B30</f>
-        <v>3.8241519629227696</v>
+        <v>3.6184522165531234</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -2879,7 +3420,7 @@
         <v>-2.1289400118039161E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -2905,13 +3446,13 @@
         <v>-4.2624726868293692E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
       <c r="B35" s="12">
         <f>B29-B34</f>
-        <v>10.82415196292277</v>
+        <v>10.618452216553123</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
@@ -2936,7 +3477,7 @@
       </c>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
@@ -2957,7 +3498,7 @@
       </c>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -2987,7 +3528,7 @@
       </c>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -3014,13 +3555,13 @@
         <v>-1.5088010063349616E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
       <c r="B39" s="14">
         <f>B37*B33*7.48</f>
-        <v>19594.18982762369</v>
+        <v>18540.225467174896</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -3040,8 +3581,14 @@
         <f t="shared" si="1"/>
         <v>-1.6168551289476744E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>0.90614892573386385</v>
+      </c>
+      <c r="K39">
+        <v>9.412608699819268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -3055,54 +3602,54 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>51</v>
       </c>
       <c r="B41" s="14">
         <f>B40*B35*7.48</f>
-        <v>24775.18494489467</v>
+        <v>24304.362909424115</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="14">
         <f>B38+B39+B41</f>
-        <v>62302.674772518367</v>
+        <v>60777.888376599018</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="16">
         <f>B42/B3*24*60/10^6</f>
-        <v>1.6580271977901766</v>
+        <v>4.3760079631151294</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
       <c r="B45" s="10">
         <f>(B42/10^6)+(470*B19*7.48/10^6)</f>
-        <v>0.10949662341336774</v>
+        <v>0.10724867898911127</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -3111,25 +3658,25 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
       <c r="B46" s="12">
         <f>B45/$B$3*24*60</f>
-        <v>2.9139740845546025</v>
+        <v>7.7219048872160121</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
       <c r="B47" s="10">
         <f>(B42/10^6)+((470+7410)*B19*7.48/10^6)</f>
-        <v>0.85355440943186522</v>
+        <v>0.83990518630552768</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -3138,13 +3685,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
       <c r="B48" s="12">
         <f>B47/$B$3*24*60</f>
-        <v>22.715179256734174</v>
+        <v>60.473173413997998</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
@@ -3156,7 +3703,7 @@
       </c>
       <c r="B49" s="10">
         <f>(B42/10^6)+((470+7410+6945)*B19*7.48/10^6)</f>
-        <v>1.550920310092927</v>
+        <v>1.5265852731223311</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -3171,7 +3718,7 @@
       </c>
       <c r="B50" s="12">
         <f>B49/$B$3*24*60</f>
-        <v>41.27379867924256</v>
+        <v>109.91413966480785</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
@@ -3183,7 +3730,7 @@
       </c>
       <c r="B51" s="10">
         <f>(B42/10^6)+((470+7410+6945+6945)*B19*7.48/10^6)</f>
-        <v>2.2482862107539878</v>
+        <v>2.2132653599391339</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -3198,7 +3745,7 @@
       </c>
       <c r="B52" s="12">
         <f>B51/$B$3*24*60</f>
-        <v>59.832418101750925</v>
+        <v>159.35510591561763</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
@@ -3213,7 +3760,7 @@
       </c>
       <c r="B53" s="10">
         <f>(B42/10^6)+((470+1760)*B19*7.48/10^6)</f>
-        <v>0.28622289917484622</v>
+        <v>0.28126695872958263</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -3225,7 +3772,7 @@
       </c>
       <c r="B54" s="12">
         <f>B53/$B$3*24*60</f>
-        <v>7.61709434137458</v>
+        <v>20.251221028529947</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
@@ -3237,7 +3784,7 @@
       </c>
       <c r="B55" s="10">
         <f>(B42/10^6)+((470+7410+(6945/2))*B19*7.48/10^6)</f>
-        <v>1.2022373597623961</v>
+        <v>1.1832452297139295</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -3252,7 +3799,7 @@
       </c>
       <c r="B56" s="12">
         <f>B55/$B$3*24*60</f>
-        <v>31.994488967988367</v>
+        <v>85.193656539402923</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>

--- a/North Disinfection HRT Calculator.xlsx
+++ b/North Disinfection HRT Calculator.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="86">
   <si>
     <t>Flow</t>
   </si>
@@ -307,6 +307,15 @@
   </si>
   <si>
     <t>HRT 1/2 basin</t>
+  </si>
+  <si>
+    <t>HRT 10</t>
+  </si>
+  <si>
+    <t>HRT 20</t>
+  </si>
+  <si>
+    <t>HRT 30</t>
   </si>
 </sst>
 </file>
@@ -533,339 +542,6 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HRT (min)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.13653583349137516"/>
-                  <c:y val="-5.7813505168863889E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$3:$F$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$3:$G$39</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>159.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>127.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>106.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>91.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>71.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>58.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>54.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>46.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40.800000000000004</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>38.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>36.42</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>34.57</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>33.150000000000006</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>31.61</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>30.27</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>28.93</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>27.8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>26.77</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>25.74</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24.82</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24.32</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>22.78</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>22.06</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>21.44</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20.82</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>20.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>19.690000000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>19.170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>18.66</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>18.47</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>17.95</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>17.54</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C57F-4AAD-895B-C1EE499DD8FD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -912,7 +588,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="power"/>
-            <c:dispRSqr val="1"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -923,7 +599,9 @@
               </c:layout>
               <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
               <c:spPr>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -1112,15 +790,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>HRT 1/2 basin</c:v>
+                  <c:v>HRT 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1137,11 +815,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1151,20 +829,27 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="power"/>
-            <c:dispRSqr val="1"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.37707874499375116"/>
+                  <c:y val="-0.31676897176433061"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -1175,7 +860,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -1319,28 +1004,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>85.193656539402923</c:v>
+                  <c:v>60.473173413997998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.096252931289087</c:v>
+                  <c:v>40.531398631119707</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.02334256878175</c:v>
+                  <c:v>30.543113085023172</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.566575471016279</c:v>
+                  <c:v>24.540783939177842</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.920721025252586</c:v>
+                  <c:v>20.533474771328713</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.751848983594847</c:v>
+                  <c:v>12.613142369550129</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12.201793628322251</c:v>
+                  <c:v>8.6766838228209782</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.412608699819268</c:v>
+                  <c:v>6.6982800468891908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1348,7 +1033,503 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4EB0-49C3-99DE-B30D4450E66F}"/>
+              <c16:uniqueId val="{00000000-1C99-4E59-811A-B676D1F8B4BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HRT 20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.34474911514255657"/>
+                  <c:y val="-0.19552735134476473"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>109.91413966480785</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.661107231458459</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.503572052540349</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.592367002854694</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.307967279176459</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.890555597639558</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15.726903433823528</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.126937352749342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1C99-4E59-811A-B676D1F8B4BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HRT 30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.19733477850818543"/>
+                  <c:y val="-0.10273262575418464"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>159.35510591561763</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106.79081583179722</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.464031020057547</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.643950066531545</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.082459787024185</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33.167968825728991</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.77712304482607</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17.5555946586095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1C99-4E59-811A-B676D1F8B4BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1362,6 +1543,624 @@
         </c:dLbls>
         <c:axId val="1032050687"/>
         <c:axId val="1032056927"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>HRT (min)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:trendline>
+                  <c:spPr>
+                    <a:ln w="19050" cap="rnd">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:prstDash val="sysDot"/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:trendlineType val="power"/>
+                  <c:dispRSqr val="1"/>
+                  <c:dispEq val="1"/>
+                  <c:trendlineLbl>
+                    <c:layout>
+                      <c:manualLayout>
+                        <c:x val="7.1575622553975704E-2"/>
+                        <c:y val="-6.9635186980448099E-2"/>
+                      </c:manualLayout>
+                    </c:layout>
+                    <c:numFmt formatCode="General" sourceLinked="0"/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="65000"/>
+                                <a:lumOff val="35000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                        <a:endParaRPr lang="en-US"/>
+                      </a:p>
+                    </c:txPr>
+                  </c:trendlineLbl>
+                </c:trendline>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$3:$F$39</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="37"/>
+                      <c:pt idx="0">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>105</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>115</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>125</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>135</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>145</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>155</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>165</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>175</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>180</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>185</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>190</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>195</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>200</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$3:$G$39</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="37"/>
+                      <c:pt idx="0">
+                        <c:v>159.4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>127.8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>106.7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>91.7</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>80.400000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>71.7</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64.7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>58.9</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>54.1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>46.5</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>43.5</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>40.800000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>38.5</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>36.42</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>34.57</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>33.150000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>31.61</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>30.27</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>28.93</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>27.8</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>26.77</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>25.74</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24.82</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>24.32</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>23.5</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>22.78</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>22.06</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>21.44</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>20.82</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>20.200000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>19.690000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>19.170000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>18.66</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>18.47</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>17.95</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>17.54</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-C57F-4AAD-895B-C1EE499DD8FD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$N$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>HRT 1/2 basin</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:trendline>
+                  <c:spPr>
+                    <a:ln w="19050" cap="rnd">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:prstDash val="sysDot"/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:trendlineType val="power"/>
+                  <c:dispRSqr val="1"/>
+                  <c:dispEq val="1"/>
+                  <c:trendlineLbl>
+                    <c:layout/>
+                    <c:numFmt formatCode="General" sourceLinked="0"/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="65000"/>
+                                <a:lumOff val="35000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                        <a:endParaRPr lang="en-US"/>
+                      </a:p>
+                    </c:txPr>
+                  </c:trendlineLbl>
+                </c:trendline>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$3:$F$39</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="37"/>
+                      <c:pt idx="0">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>105</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>115</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>125</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>135</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>145</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>155</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>165</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>175</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>180</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>185</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>190</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>195</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>200</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$N$3:$N$39</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="37"/>
+                      <c:pt idx="0">
+                        <c:v>85.193656539402923</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>57.096252931289087</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>43.02334256878175</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>34.566575471016279</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>28.920721025252586</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17.751848983594847</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>12.201793628322251</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>9.412608699819268</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-4EB0-49C3-99DE-B30D4450E66F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1032050687"/>
@@ -1558,7 +2357,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2204,13 +3003,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>9203</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>171289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>423822</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>63713</xdr:rowOff>
@@ -2498,10 +3297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2512,14 +3311,17 @@
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -2548,10 +3350,19 @@
         <v>81</v>
       </c>
       <c r="K2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2580,10 +3391,19 @@
         <v>7.7219048872160121</v>
       </c>
       <c r="K3">
+        <v>60.473173413997998</v>
+      </c>
+      <c r="L3">
+        <v>109.91413966480785</v>
+      </c>
+      <c r="M3">
+        <v>159.35510591561763</v>
+      </c>
+      <c r="N3">
         <v>85.193656539402923</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="9">
         <f>B3*1.547</f>
         <v>30.939999999999998</v>
@@ -2607,7 +3427,7 @@
         <v>-1.4234842490656971E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>54</v>
       </c>
@@ -2631,10 +3451,19 @@
         <v>5.1835021979289069</v>
       </c>
       <c r="K5">
+        <v>40.531398631119707</v>
+      </c>
+      <c r="L5">
+        <v>73.661107231458459</v>
+      </c>
+      <c r="M5">
+        <v>106.79081583179722</v>
+      </c>
+      <c r="N5">
         <v>57.096252931289087</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2663,7 +3492,7 @@
         <v>-4.0521928647216108E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2692,10 +3521,19 @@
         <v>3.9114354825318367</v>
       </c>
       <c r="K7">
+        <v>30.543113085023172</v>
+      </c>
+      <c r="L7">
+        <v>55.503572052540349</v>
+      </c>
+      <c r="M7">
+        <v>80.464031020057547</v>
+      </c>
+      <c r="N7">
         <v>43.02334256878175</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2718,7 +3556,7 @@
         <v>1.7160837644003774E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2751,10 +3589,19 @@
         <v>3.1466542772850512</v>
       </c>
       <c r="K9">
+        <v>24.540783939177842</v>
+      </c>
+      <c r="L9">
+        <v>44.592367002854694</v>
+      </c>
+      <c r="M9">
+        <v>64.643950066531545</v>
+      </c>
+      <c r="N9">
         <v>34.566575471016279</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
         <f>B9*12</f>
         <v>2.621426598629236</v>
@@ -2778,7 +3625,7 @@
         <v>6.5444067164350502E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2808,10 +3655,19 @@
         <v>2.6358520955689295</v>
       </c>
       <c r="K11">
+        <v>20.533474771328713</v>
+      </c>
+      <c r="L11">
+        <v>37.307967279176459</v>
+      </c>
+      <c r="M11">
+        <v>54.082459787024185</v>
+      </c>
+      <c r="N11">
         <v>28.920721025252586</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -2832,7 +3688,7 @@
         <v>1.0694244336836221E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -2858,7 +3714,7 @@
         <v>1.2437648940060327E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -2887,7 +3743,7 @@
         <v>1.3181242822643255E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -2916,7 +3772,7 @@
         <v>1.5595516942636029E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -2942,7 +3798,7 @@
         <v>1.5663261108666976E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2972,7 +3828,7 @@
         <v>1.6574438560130928E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -2998,7 +3854,7 @@
         <v>1.7025447113697013E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -3029,10 +3885,19 @@
         <v>1.6476086013510338</v>
       </c>
       <c r="K19">
+        <v>12.613142369550129</v>
+      </c>
+      <c r="L19">
+        <v>22.890555597639558</v>
+      </c>
+      <c r="M19">
+        <v>33.167968825728991</v>
+      </c>
+      <c r="N19">
         <v>17.751848983594847</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -3054,7 +3919,7 @@
         <v>1.0772691879495018E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -3084,7 +3949,7 @@
         <v>9.6041749722702366E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -3111,7 +3976,7 @@
         <v>1.2416924846280182E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -3138,7 +4003,7 @@
         <v>1.1562913594030968E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
@@ -3159,7 +4024,7 @@
         <v>1.0277363427620211E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -3185,7 +4050,7 @@
         <v>1.2037437742344127E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -3214,7 +4079,7 @@
         <v>1.2357969212192288E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -3243,7 +4108,7 @@
         <v>-2.1322358599670946E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -3272,7 +4137,7 @@
         <v>-1.3822219531606488E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -3305,10 +4170,19 @@
         <v>1.1544192702610241</v>
       </c>
       <c r="K29">
+        <v>8.6766838228209782</v>
+      </c>
+      <c r="L29">
+        <v>15.726903433823528</v>
+      </c>
+      <c r="M29">
+        <v>22.77712304482607</v>
+      </c>
+      <c r="N29">
         <v>12.201793628322251</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -3334,7 +4208,7 @@
         <v>-1.9039100585509082E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -3360,7 +4234,7 @@
         <v>-3.742781034113117E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -3390,7 +4264,7 @@
         <v>-3.8159361753263951E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -3420,7 +4294,7 @@
         <v>-2.1289400118039161E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -3446,7 +4320,7 @@
         <v>-4.2624726868293692E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -3476,8 +4350,11 @@
         <v>-4.4287696553653947E-3</v>
       </c>
       <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
@@ -3497,8 +4374,11 @@
         <v>-3.6609457308287878E-3</v>
       </c>
       <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -3527,8 +4407,11 @@
         <v>-1.8750094700405843E-2</v>
       </c>
       <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -3555,7 +4438,7 @@
         <v>-1.5088010063349616E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -3585,10 +4468,19 @@
         <v>0.90614892573386385</v>
       </c>
       <c r="K39">
+        <v>6.6982800468891908</v>
+      </c>
+      <c r="L39">
+        <v>12.126937352749342</v>
+      </c>
+      <c r="M39">
+        <v>17.5555946586095</v>
+      </c>
+      <c r="N39">
         <v>9.412608699819268</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -3602,7 +4494,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -3614,7 +4506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -3626,7 +4518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -3638,12 +4530,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -3658,7 +4550,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -3670,7 +4562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -3685,7 +4577,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>

--- a/North Disinfection HRT Calculator.xlsx
+++ b/North Disinfection HRT Calculator.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcCompleted="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -326,7 +326,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +370,34 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -429,7 +457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -472,6 +500,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -841,8 +873,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.37707874499375116"/>
-                  <c:y val="-0.31676897176433061"/>
+                  <c:x val="0.15935961876493177"/>
+                  <c:y val="-5.2210766719290105E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -860,7 +892,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -1089,8 +1121,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.34474911514255657"/>
-                  <c:y val="-0.19552735134476473"/>
+                  <c:x val="0.15756352821764319"/>
+                  <c:y val="-9.0273011703189479E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1108,7 +1140,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -1337,8 +1369,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.19733477850818543"/>
-                  <c:y val="-0.10273262575418464"/>
+                  <c:x val="0.13897399105320629"/>
+                  <c:y val="-0.14255859210505095"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1356,7 +1388,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -1904,7 +1936,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$N$2</c15:sqref>
@@ -1955,7 +1987,6 @@
                   <c:dispRSqr val="1"/>
                   <c:dispEq val="1"/>
                   <c:trendlineLbl>
-                    <c:layout/>
                     <c:numFmt formatCode="General" sourceLinked="0"/>
                     <c:spPr>
                       <a:noFill/>
@@ -1988,7 +2019,7 @@
                 </c:trendline>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$3:$F$39</c15:sqref>
@@ -2114,7 +2145,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$N$3:$N$39</c15:sqref>
@@ -2152,7 +2183,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-4EB0-49C3-99DE-B30D4450E66F}"/>
                   </c:ext>
@@ -3300,7 +3331,7 @@
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3346,16 +3377,16 @@
       <c r="I2" t="s">
         <v>77</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="21" t="s">
         <v>85</v>
       </c>
       <c r="N2" t="s">

--- a/North Disinfection HRT Calculator.xlsx
+++ b/North Disinfection HRT Calculator.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="old dose" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="90">
   <si>
     <t>Flow</t>
   </si>
@@ -316,6 +317,18 @@
   </si>
   <si>
     <t>HRT 30</t>
+  </si>
+  <si>
+    <t>North Disinfection HRT Calculation - Old Dosing Point (Initial Pilot Dosing Point)</t>
+  </si>
+  <si>
+    <t>HRT for new dosing location (original sodium hypo dosing location)</t>
+  </si>
+  <si>
+    <t>1-min</t>
+  </si>
+  <si>
+    <t>half basin</t>
   </si>
 </sst>
 </file>
@@ -509,7 +522,37 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2474,7 +2517,519 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12861001749781278"/>
+                  <c:y val="-2.2299504228638085E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'old dose'!$L$2:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'old dose'!$M$2:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.7219048872160121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9114354825318367</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6358520955689295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9957861558129295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6369343421509952</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3749381839856922</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1872939278529473</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0462022636078059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-083F-4C28-8BEE-AA1245750B57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12583223972003499"/>
+                  <c:y val="-6.0748396033829019E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'old dose'!$L$2:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'old dose'!$R$2:$R$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>85.193656539402923</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.02334256878175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.920721025252586</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.850195907909718</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.741174724394803</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.875779482564946</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.824809258743525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.283552979700852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-083F-4C28-8BEE-AA1245750B57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="92357056"/>
+        <c:axId val="92351648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="92357056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92351648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="92351648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92357056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3030,6 +3585,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3044,6 +4115,41 @@
       <xdr:colOff>423822</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>63713</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3330,8 +4436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC22" sqref="AC22"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z36" sqref="Z36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4730,6 +5836,892 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B33">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+      <formula>13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="73" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="M1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>7.7219048872160121</v>
+      </c>
+      <c r="N2">
+        <v>60.473173413997998</v>
+      </c>
+      <c r="O2">
+        <v>109.91413966480785</v>
+      </c>
+      <c r="P2">
+        <v>159.35510591561763</v>
+      </c>
+      <c r="Q2">
+        <v>20.251221028529947</v>
+      </c>
+      <c r="R2">
+        <v>85.193656539402923</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8">
+        <v>160</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>40</v>
+      </c>
+      <c r="M3">
+        <v>3.9114354825318367</v>
+      </c>
+      <c r="N3">
+        <v>30.543113085023172</v>
+      </c>
+      <c r="O3">
+        <v>55.503572052540349</v>
+      </c>
+      <c r="P3">
+        <v>80.464031020057547</v>
+      </c>
+      <c r="Q3">
+        <v>10.236908165444758</v>
+      </c>
+      <c r="R3">
+        <v>43.02334256878175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
+        <f>B3*1.547</f>
+        <v>247.51999999999998</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4">
+        <v>60</v>
+      </c>
+      <c r="M4">
+        <v>2.6358520955689295</v>
+      </c>
+      <c r="N4">
+        <v>20.533474771328713</v>
+      </c>
+      <c r="O4">
+        <v>37.307967279176459</v>
+      </c>
+      <c r="P4">
+        <v>54.082459787024185</v>
+      </c>
+      <c r="Q4">
+        <v>6.8868393977736826</v>
+      </c>
+      <c r="R4">
+        <v>28.920721025252586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="L5">
+        <v>80</v>
+      </c>
+      <c r="M5">
+        <v>1.9957861558129295</v>
+      </c>
+      <c r="N5">
+        <v>15.5148466899767</v>
+      </c>
+      <c r="O5">
+        <v>28.185545125842747</v>
+      </c>
+      <c r="P5">
+        <v>40.856243561708794</v>
+      </c>
+      <c r="Q5">
+        <v>5.2067910870043246</v>
+      </c>
+      <c r="R5">
+        <v>21.850195907909718</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5109.8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>1.6369343421509952</v>
+      </c>
+      <c r="N6">
+        <v>12.60246811035009</v>
+      </c>
+      <c r="O6">
+        <v>22.879881338439521</v>
+      </c>
+      <c r="P6">
+        <v>33.157294566528954</v>
+      </c>
+      <c r="Q6">
+        <v>4.2414335907380938</v>
+      </c>
+      <c r="R6">
+        <v>17.741174724394803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7">
+        <v>120</v>
+      </c>
+      <c r="M7">
+        <v>1.3749381839856922</v>
+      </c>
+      <c r="N7">
+        <v>10.567792217752958</v>
+      </c>
+      <c r="O7">
+        <v>19.183766747376936</v>
+      </c>
+      <c r="P7">
+        <v>27.799741277000916</v>
+      </c>
+      <c r="Q7">
+        <v>3.5583960921409408</v>
+      </c>
+      <c r="R7">
+        <v>14.875779482564946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="8">
+        <v>3.33</v>
+      </c>
+      <c r="L8">
+        <v>140</v>
+      </c>
+      <c r="M8">
+        <v>1.1872939278529473</v>
+      </c>
+      <c r="N8">
+        <v>9.1113912034696867</v>
+      </c>
+      <c r="O8">
+        <v>16.538227314017359</v>
+      </c>
+      <c r="P8">
+        <v>23.965063424565031</v>
+      </c>
+      <c r="Q8">
+        <v>3.0694007031681245</v>
+      </c>
+      <c r="R8">
+        <v>12.824809258743525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="10">
+        <f>(B4/B8/B7)^(2/3)</f>
+        <v>0.87380886620974518</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9">
+        <v>160</v>
+      </c>
+      <c r="M9">
+        <v>1.0462022636078059</v>
+      </c>
+      <c r="N9">
+        <v>8.0169138469985235</v>
+      </c>
+      <c r="O9">
+        <v>14.550192112403186</v>
+      </c>
+      <c r="P9">
+        <v>21.083470377807846</v>
+      </c>
+      <c r="Q9">
+        <v>2.7018638542647109</v>
+      </c>
+      <c r="R9">
+        <v>11.283552979700852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="11">
+        <f>B9*12</f>
+        <v>10.485706394516942</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="12">
+        <f>B6+B9</f>
+        <v>5110.6738088662096</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="11">
+        <f>IF($B$3&gt;=100, B11+B14, IF($B$3&gt;=140, B11+B15, IF($B$3&gt;=190, B11+B16, B11+B13)))</f>
+        <v>5110.7738088662099</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="13">
+        <v>5096.8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="12">
+        <f>B17-B18</f>
+        <v>13.973808866209765</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="15">
+        <f>470+7410+6945+6945</f>
+        <v>21770</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="10">
+        <f>B19*B21*7.48/10^6</f>
+        <v>2.2754894462500519</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="12">
+        <f>B22/B3*24*60</f>
+        <v>20.479405016250467</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="13">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="11">
+        <f>IF($B$3&gt;=100, B11+B26, IF($B$3&gt;=140, B11+B27, IF($B$3&gt;=190, B11+B28, B11+B25)))</f>
+        <v>5111.4738088662098</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="13">
+        <v>5107</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="13">
+        <v>5100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="12">
+        <f>(B30-B31)/2</f>
+        <v>3.5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="12">
+        <f>B29-B30</f>
+        <v>4.4738088662097653</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="13">
+        <v>5100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="12">
+        <f>B29-B34</f>
+        <v>11.473808866209765</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="15">
+        <v>685</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="14">
+        <f>B37*B32*7.48</f>
+        <v>17933.3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="14">
+        <f>B37*B33*7.48</f>
+        <v>22922.901868685596</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="15">
+        <v>306</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="14">
+        <f>B40*B35*7.48</f>
+        <v>26262.171637690208</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="14">
+        <f>B38+B39+B41</f>
+        <v>67118.373506375807</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="16">
+        <f>B42/B3*24*60/10^6</f>
+        <v>0.60406536155738244</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="10">
+        <f>(B42/10^6)+(470*B19*7.48/10^6)</f>
+        <v>0.11624469595642287</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="16">
+        <f>B45/$B$3*24*60</f>
+        <v>1.0462022636078059</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="10">
+        <f>(B42/10^6)+((470+7410)*B19*7.48/10^6)</f>
+        <v>0.89076820522205824</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="12">
+        <f>B47/$B$3*24*60</f>
+        <v>8.0169138469985235</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="10">
+        <f>(B42/10^6)+((470+7410+6945)*B19*7.48/10^6)</f>
+        <v>1.6166880124892431</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="12">
+        <f>B49/$B$3*24*60</f>
+        <v>14.550192112403186</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="10">
+        <f>(B42/10^6)+((470+7410+6945+6945)*B19*7.48/10^6)</f>
+        <v>2.3426078197564277</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="12">
+        <f>B51/$B$3*24*60</f>
+        <v>21.083470377807846</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="10">
+        <f>(B42/10^6)+((470+1760)*B19*7.48/10^6)</f>
+        <v>0.30020709491830122</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="12">
+        <f>B53/$B$3*24*60</f>
+        <v>2.7018638542647109</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="10">
+        <f>(B42/10^6)+((470+7410+(6945/2))*B19*7.48/10^6)</f>
+        <v>1.2537281088556504</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="12">
+        <f>B55/$B$3*24*60</f>
+        <v>11.283552979700852</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B33">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>6</formula>
     </cfRule>
@@ -4745,8 +6737,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>